--- a/Doc/Stats.xlsx
+++ b/Doc/Stats.xlsx
@@ -684,7 +684,7 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1106,7 +1106,7 @@
     <row r="29" spans="1:8" ht="13.5" thickBot="1">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="C29" s="4">
         <v>10</v>
